--- a/schedules.xlsx
+++ b/schedules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M.taha\Desktop\saas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24085D4-55F2-4AA4-9AA1-CD3F9715FA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB76AEC5-F576-4179-8EEC-D0A51D2558AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1228,8 +1228,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G2102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="113" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E645" sqref="E645"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E501" sqref="E501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6622,7 +6622,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>180</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>180</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>180</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>136</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>98</v>
       </c>
       <c r="G289" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -8416,7 +8416,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>136</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>98</v>
       </c>
       <c r="G313" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -8577,7 +8577,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>136</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>98</v>
       </c>
       <c r="G320" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -9451,7 +9451,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>136</v>
       </c>
@@ -9471,10 +9471,10 @@
         <v>98</v>
       </c>
       <c r="G358" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>180</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>136</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>98</v>
       </c>
       <c r="G364" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -9773,7 +9773,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>136</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>98</v>
       </c>
       <c r="G372" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -10210,7 +10210,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>180</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>180</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>136</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>98</v>
       </c>
       <c r="G404" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -10831,7 +10831,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>136</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>98</v>
       </c>
       <c r="G418" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -10946,7 +10946,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>180</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>136</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>98</v>
       </c>
       <c r="G429" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -11268,7 +11268,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>180</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>180</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>136</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>98</v>
       </c>
       <c r="G449" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -12740,7 +12740,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>136</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>98</v>
       </c>
       <c r="G501" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -12970,7 +12970,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>136</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>98</v>
       </c>
       <c r="G511" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -14327,7 +14327,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>180</v>
       </c>
@@ -15247,7 +15247,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>136</v>
       </c>
@@ -15267,7 +15267,7 @@
         <v>98</v>
       </c>
       <c r="G610" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -15385,7 +15385,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>136</v>
       </c>
@@ -15405,10 +15405,10 @@
         <v>98</v>
       </c>
       <c r="G616" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>180</v>
       </c>
@@ -15960,7 +15960,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="641" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>136</v>
       </c>
@@ -15980,7 +15980,7 @@
         <v>98</v>
       </c>
       <c r="G641" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="642" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -16052,7 +16052,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>180</v>
       </c>
@@ -17547,7 +17547,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="710" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>136</v>
       </c>
@@ -17567,7 +17567,7 @@
         <v>98</v>
       </c>
       <c r="G710" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="711" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -17984,7 +17984,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="729" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>136</v>
       </c>
@@ -18004,10 +18004,10 @@
         <v>98</v>
       </c>
       <c r="G729" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>180</v>
       </c>
@@ -18168,7 +18168,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="737" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>136</v>
       </c>
@@ -18188,7 +18188,7 @@
         <v>98</v>
       </c>
       <c r="G737" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="738" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -18375,7 +18375,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>180</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>180</v>
       </c>
@@ -20146,7 +20146,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>180</v>
       </c>
@@ -21066,7 +21066,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>180</v>
       </c>
@@ -21779,7 +21779,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="894" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>180</v>
       </c>
@@ -22078,7 +22078,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="907" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>180</v>
       </c>
@@ -22492,7 +22492,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="925" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
         <v>180</v>
       </c>
@@ -23504,7 +23504,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="969" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
         <v>180</v>
       </c>
@@ -43882,7 +43882,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="1855" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1855" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1855" t="s">
         <v>136</v>
       </c>
@@ -43902,10 +43902,10 @@
         <v>98</v>
       </c>
       <c r="G1855" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1856" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1856" t="s">
         <v>136</v>
       </c>
@@ -43925,7 +43925,7 @@
         <v>98</v>
       </c>
       <c r="G1856" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1857" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -49590,7 +49590,7 @@
   <autoFilter ref="A1:H2102" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Allen Tarisai Mutero"/>
+        <filter val="Thebolo Motshegare"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/schedules.xlsx
+++ b/schedules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M.taha\Desktop\saas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB76AEC5-F576-4179-8EEC-D0A51D2558AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13126FD0-95FD-4593-8CA8-CBCA4977A9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1229,7 +1229,7 @@
   <dimension ref="A1:G2102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E501" sqref="E501"/>
+      <selection activeCell="G1080" sqref="G1080:G1962"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1674,7 +1674,7 @@
         <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -4503,7 +4503,7 @@
         <v>107</v>
       </c>
       <c r="G142" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -6343,7 +6343,7 @@
         <v>107</v>
       </c>
       <c r="G222" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -7864,7 +7864,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>136</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>107</v>
       </c>
       <c r="G296" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -8416,7 +8416,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>136</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>136</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>136</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>136</v>
       </c>
@@ -9770,10 +9770,10 @@
         <v>107</v>
       </c>
       <c r="G371" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>136</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>136</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>136</v>
       </c>
@@ -11081,10 +11081,10 @@
         <v>107</v>
       </c>
       <c r="G428" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>136</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>136</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>136</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>136</v>
       </c>
@@ -13174,7 +13174,7 @@
         <v>107</v>
       </c>
       <c r="G519" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -15247,7 +15247,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>136</v>
       </c>
@@ -15382,10 +15382,10 @@
         <v>107</v>
       </c>
       <c r="G615" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>136</v>
       </c>
@@ -15960,7 +15960,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>136</v>
       </c>
@@ -17547,7 +17547,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>136</v>
       </c>
@@ -17636,7 +17636,7 @@
         <v>107</v>
       </c>
       <c r="G713" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="714" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -17984,7 +17984,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>136</v>
       </c>
@@ -18168,7 +18168,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>136</v>
       </c>
@@ -25896,7 +25896,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="1073" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1073" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
         <v>210</v>
       </c>
@@ -25916,7 +25916,7 @@
         <v>262</v>
       </c>
       <c r="G1073" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1074" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -26057,7 +26057,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1080" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1080" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
         <v>210</v>
       </c>
@@ -26077,7 +26077,7 @@
         <v>262</v>
       </c>
       <c r="G1080" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1081" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -26862,7 +26862,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="1115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
         <v>210</v>
       </c>
@@ -26882,7 +26882,7 @@
         <v>262</v>
       </c>
       <c r="G1115" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -29185,7 +29185,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="1216" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
         <v>210</v>
       </c>
@@ -29205,7 +29205,7 @@
         <v>262</v>
       </c>
       <c r="G1216" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1217" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -29323,7 +29323,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1222" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
         <v>210</v>
       </c>
@@ -29343,7 +29343,7 @@
         <v>262</v>
       </c>
       <c r="G1222" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1223" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -29714,7 +29714,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
         <v>210</v>
       </c>
@@ -29734,7 +29734,7 @@
         <v>262</v>
       </c>
       <c r="G1239" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1240" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -30450,7 +30450,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1271" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1271" t="s">
         <v>210</v>
       </c>
@@ -30470,7 +30470,7 @@
         <v>262</v>
       </c>
       <c r="G1271" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1272" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -30772,7 +30772,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1285" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1285" t="s">
         <v>210</v>
       </c>
@@ -30792,7 +30792,7 @@
         <v>262</v>
       </c>
       <c r="G1285" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1286" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -31531,7 +31531,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="1318" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1318" t="s">
         <v>210</v>
       </c>
@@ -31551,7 +31551,7 @@
         <v>262</v>
       </c>
       <c r="G1318" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1319" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -31646,7 +31646,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1323" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1323" t="s">
         <v>210</v>
       </c>
@@ -31666,7 +31666,7 @@
         <v>262</v>
       </c>
       <c r="G1323" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1324" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -32175,7 +32175,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1346" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1346" t="s">
         <v>210</v>
       </c>
@@ -32195,7 +32195,7 @@
         <v>262</v>
       </c>
       <c r="G1346" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1347" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -32336,7 +32336,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1353" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1353" t="s">
         <v>210</v>
       </c>
@@ -32356,7 +32356,7 @@
         <v>262</v>
       </c>
       <c r="G1353" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1354" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -32957,7 +32957,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1380" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1380" t="s">
         <v>210</v>
       </c>
@@ -32977,7 +32977,7 @@
         <v>262</v>
       </c>
       <c r="G1380" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1381" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -33279,7 +33279,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="1394" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1394" t="s">
         <v>210</v>
       </c>
@@ -33299,7 +33299,7 @@
         <v>262</v>
       </c>
       <c r="G1394" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1395" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -34153,7 +34153,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1432" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1432" t="s">
         <v>210</v>
       </c>
@@ -34173,7 +34173,7 @@
         <v>262</v>
       </c>
       <c r="G1432" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1433" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -34452,7 +34452,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="1445" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1445" t="s">
         <v>210</v>
       </c>
@@ -34472,10 +34472,10 @@
         <v>262</v>
       </c>
       <c r="G1445" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1446" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1446" t="s">
         <v>210</v>
       </c>
@@ -34495,10 +34495,10 @@
         <v>262</v>
       </c>
       <c r="G1446" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1447" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1447" t="s">
         <v>210</v>
       </c>
@@ -34518,7 +34518,7 @@
         <v>262</v>
       </c>
       <c r="G1447" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1448" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -37002,7 +37002,7 @@
         <v>107</v>
       </c>
       <c r="G1555" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1556" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -39141,7 +39141,7 @@
         <v>107</v>
       </c>
       <c r="G1648" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1649" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -39969,7 +39969,7 @@
         <v>107</v>
       </c>
       <c r="G1684" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1685" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -43074,7 +43074,7 @@
         <v>107</v>
       </c>
       <c r="G1819" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1820" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -43419,7 +43419,7 @@
         <v>107</v>
       </c>
       <c r="G1834" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1835" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -43442,7 +43442,7 @@
         <v>107</v>
       </c>
       <c r="G1835" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1836" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -43465,7 +43465,7 @@
         <v>107</v>
       </c>
       <c r="G1836" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1837" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -43767,7 +43767,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1850" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1850" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1850" t="s">
         <v>210</v>
       </c>
@@ -43787,10 +43787,10 @@
         <v>262</v>
       </c>
       <c r="G1850" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1851" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1851" t="s">
         <v>210</v>
       </c>
@@ -43810,10 +43810,10 @@
         <v>262</v>
       </c>
       <c r="G1851" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1852" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1852" t="s">
         <v>210</v>
       </c>
@@ -43833,7 +43833,7 @@
         <v>262</v>
       </c>
       <c r="G1852" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1853" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -43856,7 +43856,7 @@
         <v>107</v>
       </c>
       <c r="G1853" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1854" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -43882,7 +43882,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="1855" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1855" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1855" t="s">
         <v>136</v>
       </c>
@@ -43905,7 +43905,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1856" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1856" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1856" t="s">
         <v>136</v>
       </c>
@@ -46297,7 +46297,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1960" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1960" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1960" t="s">
         <v>210</v>
       </c>
@@ -46317,10 +46317,10 @@
         <v>262</v>
       </c>
       <c r="G1960" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1961" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1961" t="s">
         <v>210</v>
       </c>
@@ -46340,10 +46340,10 @@
         <v>262</v>
       </c>
       <c r="G1961" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1962" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1962" t="s">
         <v>210</v>
       </c>
@@ -46363,7 +46363,7 @@
         <v>262</v>
       </c>
       <c r="G1962" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1963" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -46501,7 +46501,7 @@
         <v>107</v>
       </c>
       <c r="G1968" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1969" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -47352,7 +47352,7 @@
         <v>107</v>
       </c>
       <c r="G2005" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2006" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -49590,7 +49590,7 @@
   <autoFilter ref="A1:H2102" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Thebolo Motshegare"/>
+        <filter val="Muhammad Masab Bilal Muhammad Talha"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/schedules.xlsx
+++ b/schedules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M.taha\Desktop\saas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13126FD0-95FD-4593-8CA8-CBCA4977A9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3C7647-686B-4E81-9800-C3ECCA1F12F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1229,7 +1229,7 @@
   <dimension ref="A1:G2102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1080" sqref="G1080:G1962"/>
+      <selection activeCell="G1909" sqref="G1909:G1932"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8873,7 +8873,7 @@
         <v>251</v>
       </c>
       <c r="G332" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -8896,7 +8896,7 @@
         <v>251</v>
       </c>
       <c r="G333" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -8919,7 +8919,7 @@
         <v>251</v>
       </c>
       <c r="G334" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -13197,7 +13197,7 @@
         <v>256</v>
       </c>
       <c r="G520" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -13703,7 +13703,7 @@
         <v>256</v>
       </c>
       <c r="G542" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -13726,7 +13726,7 @@
         <v>256</v>
       </c>
       <c r="G543" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -13749,7 +13749,7 @@
         <v>256</v>
       </c>
       <c r="G544" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -13772,7 +13772,7 @@
         <v>256</v>
       </c>
       <c r="G545" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -13795,7 +13795,7 @@
         <v>256</v>
       </c>
       <c r="G546" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -13818,7 +13818,7 @@
         <v>256</v>
       </c>
       <c r="G547" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -13841,7 +13841,7 @@
         <v>256</v>
       </c>
       <c r="G548" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -13864,7 +13864,7 @@
         <v>256</v>
       </c>
       <c r="G549" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -13887,7 +13887,7 @@
         <v>256</v>
       </c>
       <c r="G550" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -13910,7 +13910,7 @@
         <v>256</v>
       </c>
       <c r="G551" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -13933,7 +13933,7 @@
         <v>256</v>
       </c>
       <c r="G552" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -13956,7 +13956,7 @@
         <v>256</v>
       </c>
       <c r="G553" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -13979,7 +13979,7 @@
         <v>256</v>
       </c>
       <c r="G554" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -14002,7 +14002,7 @@
         <v>256</v>
       </c>
       <c r="G555" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -14025,7 +14025,7 @@
         <v>256</v>
       </c>
       <c r="G556" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -14048,7 +14048,7 @@
         <v>256</v>
       </c>
       <c r="G557" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -14071,7 +14071,7 @@
         <v>256</v>
       </c>
       <c r="G558" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -14094,7 +14094,7 @@
         <v>256</v>
       </c>
       <c r="G559" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -14117,7 +14117,7 @@
         <v>256</v>
       </c>
       <c r="G560" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -14140,7 +14140,7 @@
         <v>256</v>
       </c>
       <c r="G561" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -14163,7 +14163,7 @@
         <v>256</v>
       </c>
       <c r="G562" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -14186,7 +14186,7 @@
         <v>256</v>
       </c>
       <c r="G563" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -14209,7 +14209,7 @@
         <v>256</v>
       </c>
       <c r="G564" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -14232,7 +14232,7 @@
         <v>256</v>
       </c>
       <c r="G565" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -14255,7 +14255,7 @@
         <v>256</v>
       </c>
       <c r="G566" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -14370,7 +14370,7 @@
         <v>256</v>
       </c>
       <c r="G571" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -14393,7 +14393,7 @@
         <v>256</v>
       </c>
       <c r="G572" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -14416,7 +14416,7 @@
         <v>256</v>
       </c>
       <c r="G573" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19499,7 +19499,7 @@
         <v>232</v>
       </c>
       <c r="G794" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="795" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19522,7 +19522,7 @@
         <v>232</v>
       </c>
       <c r="G795" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="796" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19545,7 +19545,7 @@
         <v>232</v>
       </c>
       <c r="G796" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="797" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19568,7 +19568,7 @@
         <v>232</v>
       </c>
       <c r="G797" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="798" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19591,7 +19591,7 @@
         <v>232</v>
       </c>
       <c r="G798" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="799" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19637,7 +19637,7 @@
         <v>232</v>
       </c>
       <c r="G800" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="801" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19660,7 +19660,7 @@
         <v>232</v>
       </c>
       <c r="G801" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="802" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19683,7 +19683,7 @@
         <v>232</v>
       </c>
       <c r="G802" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="803" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19706,7 +19706,7 @@
         <v>232</v>
       </c>
       <c r="G803" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="804" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19729,7 +19729,7 @@
         <v>232</v>
       </c>
       <c r="G804" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="805" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19752,7 +19752,7 @@
         <v>232</v>
       </c>
       <c r="G805" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="806" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19775,7 +19775,7 @@
         <v>232</v>
       </c>
       <c r="G806" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="807" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19798,7 +19798,7 @@
         <v>232</v>
       </c>
       <c r="G807" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="808" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19821,7 +19821,7 @@
         <v>232</v>
       </c>
       <c r="G808" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="809" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19844,7 +19844,7 @@
         <v>232</v>
       </c>
       <c r="G809" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="810" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19867,7 +19867,7 @@
         <v>232</v>
       </c>
       <c r="G810" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="811" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19890,7 +19890,7 @@
         <v>232</v>
       </c>
       <c r="G811" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="812" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19913,7 +19913,7 @@
         <v>232</v>
       </c>
       <c r="G812" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="813" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -19936,7 +19936,7 @@
         <v>232</v>
       </c>
       <c r="G813" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="814" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -22926,7 +22926,7 @@
         <v>105</v>
       </c>
       <c r="G943" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="944" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -22949,7 +22949,7 @@
         <v>105</v>
       </c>
       <c r="G944" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="945" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -22972,7 +22972,7 @@
         <v>105</v>
       </c>
       <c r="G945" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="946" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -22995,7 +22995,7 @@
         <v>105</v>
       </c>
       <c r="G946" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="947" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23018,7 +23018,7 @@
         <v>105</v>
       </c>
       <c r="G947" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="948" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23041,7 +23041,7 @@
         <v>105</v>
       </c>
       <c r="G948" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="949" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23064,7 +23064,7 @@
         <v>105</v>
       </c>
       <c r="G949" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="950" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23087,7 +23087,7 @@
         <v>105</v>
       </c>
       <c r="G950" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="951" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23110,7 +23110,7 @@
         <v>105</v>
       </c>
       <c r="G951" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="952" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23133,7 +23133,7 @@
         <v>105</v>
       </c>
       <c r="G952" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="953" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23156,7 +23156,7 @@
         <v>105</v>
       </c>
       <c r="G953" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="954" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23179,7 +23179,7 @@
         <v>105</v>
       </c>
       <c r="G954" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="955" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23202,7 +23202,7 @@
         <v>105</v>
       </c>
       <c r="G955" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="956" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23225,7 +23225,7 @@
         <v>105</v>
       </c>
       <c r="G956" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="957" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23248,7 +23248,7 @@
         <v>105</v>
       </c>
       <c r="G957" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="958" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23271,7 +23271,7 @@
         <v>105</v>
       </c>
       <c r="G958" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="959" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23294,7 +23294,7 @@
         <v>105</v>
       </c>
       <c r="G959" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="960" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23317,7 +23317,7 @@
         <v>105</v>
       </c>
       <c r="G960" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="961" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23340,7 +23340,7 @@
         <v>105</v>
       </c>
       <c r="G961" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="962" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23363,7 +23363,7 @@
         <v>105</v>
       </c>
       <c r="G962" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="963" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -23386,7 +23386,7 @@
         <v>105</v>
       </c>
       <c r="G963" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="964" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -25896,7 +25896,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="1073" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1073" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
         <v>210</v>
       </c>
@@ -26057,7 +26057,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1080" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1080" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
         <v>210</v>
       </c>
@@ -26862,7 +26862,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="1115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
         <v>210</v>
       </c>
@@ -27986,7 +27986,7 @@
         <v>228</v>
       </c>
       <c r="G1163" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28009,7 +28009,7 @@
         <v>228</v>
       </c>
       <c r="G1164" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28032,7 +28032,7 @@
         <v>228</v>
       </c>
       <c r="G1165" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28055,7 +28055,7 @@
         <v>228</v>
       </c>
       <c r="G1166" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28078,7 +28078,7 @@
         <v>228</v>
       </c>
       <c r="G1167" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28101,7 +28101,7 @@
         <v>228</v>
       </c>
       <c r="G1168" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28124,7 +28124,7 @@
         <v>228</v>
       </c>
       <c r="G1169" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28147,7 +28147,7 @@
         <v>228</v>
       </c>
       <c r="G1170" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28170,7 +28170,7 @@
         <v>228</v>
       </c>
       <c r="G1171" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1172" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28193,7 +28193,7 @@
         <v>228</v>
       </c>
       <c r="G1172" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1173" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28216,7 +28216,7 @@
         <v>228</v>
       </c>
       <c r="G1173" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28239,7 +28239,7 @@
         <v>228</v>
       </c>
       <c r="G1174" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28262,7 +28262,7 @@
         <v>228</v>
       </c>
       <c r="G1175" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28285,7 +28285,7 @@
         <v>228</v>
       </c>
       <c r="G1176" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1177" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28308,7 +28308,7 @@
         <v>228</v>
       </c>
       <c r="G1177" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1178" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28331,7 +28331,7 @@
         <v>228</v>
       </c>
       <c r="G1178" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1179" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28354,7 +28354,7 @@
         <v>228</v>
       </c>
       <c r="G1179" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1180" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28377,7 +28377,7 @@
         <v>228</v>
       </c>
       <c r="G1180" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28400,7 +28400,7 @@
         <v>228</v>
       </c>
       <c r="G1181" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1182" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28423,7 +28423,7 @@
         <v>228</v>
       </c>
       <c r="G1182" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1183" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28446,7 +28446,7 @@
         <v>228</v>
       </c>
       <c r="G1183" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28469,7 +28469,7 @@
         <v>228</v>
       </c>
       <c r="G1184" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1185" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -28492,7 +28492,7 @@
         <v>228</v>
       </c>
       <c r="G1185" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1186" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -29185,7 +29185,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="1216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1216" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
         <v>210</v>
       </c>
@@ -29323,7 +29323,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1222" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
         <v>210</v>
       </c>
@@ -29714,7 +29714,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
         <v>210</v>
       </c>
@@ -30450,7 +30450,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1271" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1271" t="s">
         <v>210</v>
       </c>
@@ -30772,7 +30772,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1285" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1285" t="s">
         <v>210</v>
       </c>
@@ -31531,7 +31531,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="1318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1318" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1318" t="s">
         <v>210</v>
       </c>
@@ -31646,7 +31646,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1323" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1323" t="s">
         <v>210</v>
       </c>
@@ -32175,7 +32175,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1346" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1346" t="s">
         <v>210</v>
       </c>
@@ -32336,7 +32336,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1353" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1353" t="s">
         <v>210</v>
       </c>
@@ -32957,7 +32957,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1380" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1380" t="s">
         <v>210</v>
       </c>
@@ -33279,7 +33279,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="1394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1394" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1394" t="s">
         <v>210</v>
       </c>
@@ -34153,7 +34153,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1432" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1432" t="s">
         <v>210</v>
       </c>
@@ -34380,7 +34380,7 @@
         <v>251</v>
       </c>
       <c r="G1441" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1442" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -34403,7 +34403,7 @@
         <v>251</v>
       </c>
       <c r="G1442" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1443" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -34426,7 +34426,7 @@
         <v>251</v>
       </c>
       <c r="G1443" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1444" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -34449,10 +34449,10 @@
         <v>251</v>
       </c>
       <c r="G1444" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="1445" spans="1:7" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1445" t="s">
         <v>210</v>
       </c>
@@ -34475,7 +34475,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1446" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1446" t="s">
         <v>210</v>
       </c>
@@ -34498,7 +34498,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1447" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1447" t="s">
         <v>210</v>
       </c>
@@ -34541,7 +34541,7 @@
         <v>251</v>
       </c>
       <c r="G1448" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1449" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -36841,7 +36841,7 @@
         <v>105</v>
       </c>
       <c r="G1548" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1549" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -36864,7 +36864,7 @@
         <v>105</v>
       </c>
       <c r="G1549" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1550" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -37393,7 +37393,7 @@
         <v>251</v>
       </c>
       <c r="G1572" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1573" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -37416,7 +37416,7 @@
         <v>251</v>
       </c>
       <c r="G1573" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1574" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -37439,7 +37439,7 @@
         <v>251</v>
       </c>
       <c r="G1574" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1575" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -37462,7 +37462,7 @@
         <v>251</v>
       </c>
       <c r="G1575" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1576" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -37485,7 +37485,7 @@
         <v>251</v>
       </c>
       <c r="G1576" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1577" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -39348,7 +39348,7 @@
         <v>251</v>
       </c>
       <c r="G1657" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1658" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -39371,7 +39371,7 @@
         <v>251</v>
       </c>
       <c r="G1658" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1659" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -39394,7 +39394,7 @@
         <v>251</v>
       </c>
       <c r="G1659" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1660" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -39417,7 +39417,7 @@
         <v>251</v>
       </c>
       <c r="G1660" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1661" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -39440,7 +39440,7 @@
         <v>251</v>
       </c>
       <c r="G1661" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1662" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -41556,7 +41556,7 @@
         <v>251</v>
       </c>
       <c r="G1753" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1754" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -41579,7 +41579,7 @@
         <v>251</v>
       </c>
       <c r="G1754" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1755" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -41602,7 +41602,7 @@
         <v>251</v>
       </c>
       <c r="G1755" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1756" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -41625,7 +41625,7 @@
         <v>251</v>
       </c>
       <c r="G1756" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1757" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -41648,7 +41648,7 @@
         <v>251</v>
       </c>
       <c r="G1757" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1758" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -43767,7 +43767,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1850" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1850" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1850" t="s">
         <v>210</v>
       </c>
@@ -43790,7 +43790,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1851" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1851" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1851" t="s">
         <v>210</v>
       </c>
@@ -43813,7 +43813,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1852" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1852" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1852" t="s">
         <v>210</v>
       </c>
@@ -44339,7 +44339,7 @@
         <v>232</v>
       </c>
       <c r="G1874" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="1875" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -45101,7 +45101,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1908" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1908" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1908" t="s">
         <v>125</v>
       </c>
@@ -45121,10 +45121,10 @@
         <v>88</v>
       </c>
       <c r="G1908" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1909" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1909" t="s">
         <v>125</v>
       </c>
@@ -45144,10 +45144,10 @@
         <v>88</v>
       </c>
       <c r="G1909" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1910" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1910" t="s">
         <v>125</v>
       </c>
@@ -45167,10 +45167,10 @@
         <v>88</v>
       </c>
       <c r="G1910" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1911" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1911" t="s">
         <v>125</v>
       </c>
@@ -45190,10 +45190,10 @@
         <v>88</v>
       </c>
       <c r="G1911" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1912" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1912" t="s">
         <v>125</v>
       </c>
@@ -45213,10 +45213,10 @@
         <v>88</v>
       </c>
       <c r="G1912" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1913" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1913" t="s">
         <v>125</v>
       </c>
@@ -45236,10 +45236,10 @@
         <v>88</v>
       </c>
       <c r="G1913" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1914" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1914" t="s">
         <v>125</v>
       </c>
@@ -45259,10 +45259,10 @@
         <v>88</v>
       </c>
       <c r="G1914" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1915" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1915" t="s">
         <v>125</v>
       </c>
@@ -45282,10 +45282,10 @@
         <v>88</v>
       </c>
       <c r="G1915" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1916" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1916" t="s">
         <v>125</v>
       </c>
@@ -45305,10 +45305,10 @@
         <v>88</v>
       </c>
       <c r="G1916" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1917" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1917" t="s">
         <v>125</v>
       </c>
@@ -45328,10 +45328,10 @@
         <v>88</v>
       </c>
       <c r="G1917" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1918" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1918" t="s">
         <v>125</v>
       </c>
@@ -45351,10 +45351,10 @@
         <v>88</v>
       </c>
       <c r="G1918" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1919" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1919" t="s">
         <v>125</v>
       </c>
@@ -45374,10 +45374,10 @@
         <v>88</v>
       </c>
       <c r="G1919" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1920" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1920" t="s">
         <v>125</v>
       </c>
@@ -45397,10 +45397,10 @@
         <v>88</v>
       </c>
       <c r="G1920" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1921" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1921" t="s">
         <v>125</v>
       </c>
@@ -45420,10 +45420,10 @@
         <v>88</v>
       </c>
       <c r="G1921" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1922" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1922" t="s">
         <v>125</v>
       </c>
@@ -45443,10 +45443,10 @@
         <v>88</v>
       </c>
       <c r="G1922" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1923" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1923" t="s">
         <v>125</v>
       </c>
@@ -45466,10 +45466,10 @@
         <v>88</v>
       </c>
       <c r="G1923" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1924" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1924" t="s">
         <v>125</v>
       </c>
@@ -45489,10 +45489,10 @@
         <v>88</v>
       </c>
       <c r="G1924" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1925" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1925" t="s">
         <v>125</v>
       </c>
@@ -45512,10 +45512,10 @@
         <v>88</v>
       </c>
       <c r="G1925" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1926" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1926" t="s">
         <v>125</v>
       </c>
@@ -45535,10 +45535,10 @@
         <v>88</v>
       </c>
       <c r="G1926" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1927" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1927" t="s">
         <v>125</v>
       </c>
@@ -45558,10 +45558,10 @@
         <v>88</v>
       </c>
       <c r="G1927" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1928" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1928" t="s">
         <v>125</v>
       </c>
@@ -45581,10 +45581,10 @@
         <v>88</v>
       </c>
       <c r="G1928" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1929" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1929" t="s">
         <v>125</v>
       </c>
@@ -45604,10 +45604,10 @@
         <v>88</v>
       </c>
       <c r="G1929" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1930" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1930" t="s">
         <v>125</v>
       </c>
@@ -45627,10 +45627,10 @@
         <v>88</v>
       </c>
       <c r="G1930" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1931" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1931" t="s">
         <v>125</v>
       </c>
@@ -45650,10 +45650,10 @@
         <v>88</v>
       </c>
       <c r="G1931" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1932" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1932" t="s">
         <v>125</v>
       </c>
@@ -45673,7 +45673,7 @@
         <v>88</v>
       </c>
       <c r="G1932" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1933" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -46297,7 +46297,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1960" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1960" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1960" t="s">
         <v>210</v>
       </c>
@@ -46320,7 +46320,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1961" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1961" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1961" t="s">
         <v>210</v>
       </c>
@@ -46343,7 +46343,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1962" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1962" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1962" t="s">
         <v>210</v>
       </c>
@@ -49590,7 +49590,7 @@
   <autoFilter ref="A1:H2102" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Muhammad Masab Bilal Muhammad Talha"/>
+        <filter val="Varaidzo Martha Mazhambe"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/schedules.xlsx
+++ b/schedules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M.taha\Desktop\saas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3C7647-686B-4E81-9800-C3ECCA1F12F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CC59F7-DA44-41A5-B345-493F0AEB4C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12613" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21770" uniqueCount="271">
   <si>
     <t>Teacher</t>
   </si>
@@ -1229,7 +1229,7 @@
   <dimension ref="A1:G2102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1909" sqref="G1909:G1932"/>
+      <selection activeCell="D1239" sqref="D1239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1238,6 +1238,7 @@
     <col min="3" max="3" width="19.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -23754,7 +23755,7 @@
         <v>84</v>
       </c>
       <c r="G979" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="980" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -24030,7 +24031,7 @@
         <v>84</v>
       </c>
       <c r="G991" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="992" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -24122,7 +24123,7 @@
         <v>84</v>
       </c>
       <c r="G995" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="996" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -24214,7 +24215,7 @@
         <v>84</v>
       </c>
       <c r="G999" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1000" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -25801,7 +25802,7 @@
         <v>84</v>
       </c>
       <c r="G1068" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1069" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -25824,7 +25825,7 @@
         <v>84</v>
       </c>
       <c r="G1069" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1070" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -25896,7 +25897,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="1073" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1073" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
         <v>210</v>
       </c>
@@ -25939,7 +25940,7 @@
         <v>84</v>
       </c>
       <c r="G1074" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1075" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -26031,7 +26032,7 @@
         <v>84</v>
       </c>
       <c r="G1078" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1079" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -26057,7 +26058,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1080" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1080" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
         <v>210</v>
       </c>
@@ -26491,7 +26492,7 @@
         <v>84</v>
       </c>
       <c r="G1098" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1099" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -26514,7 +26515,7 @@
         <v>84</v>
       </c>
       <c r="G1099" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -26537,7 +26538,7 @@
         <v>84</v>
       </c>
       <c r="G1100" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -26767,7 +26768,7 @@
         <v>84</v>
       </c>
       <c r="G1110" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -26862,7 +26863,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="1115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
         <v>210</v>
       </c>
@@ -26905,7 +26906,7 @@
         <v>84</v>
       </c>
       <c r="G1116" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -27342,7 +27343,7 @@
         <v>84</v>
       </c>
       <c r="G1135" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -27365,7 +27366,7 @@
         <v>84</v>
       </c>
       <c r="G1136" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -27388,7 +27389,7 @@
         <v>84</v>
       </c>
       <c r="G1137" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -27411,7 +27412,7 @@
         <v>84</v>
       </c>
       <c r="G1138" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -27434,7 +27435,7 @@
         <v>84</v>
       </c>
       <c r="G1139" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -27457,7 +27458,7 @@
         <v>84</v>
       </c>
       <c r="G1140" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -27480,7 +27481,7 @@
         <v>84</v>
       </c>
       <c r="G1141" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -27503,7 +27504,7 @@
         <v>84</v>
       </c>
       <c r="G1142" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -27526,7 +27527,7 @@
         <v>84</v>
       </c>
       <c r="G1143" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -27549,7 +27550,7 @@
         <v>84</v>
       </c>
       <c r="G1144" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -27572,7 +27573,7 @@
         <v>84</v>
       </c>
       <c r="G1145" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -27595,7 +27596,7 @@
         <v>84</v>
       </c>
       <c r="G1146" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -27618,7 +27619,7 @@
         <v>84</v>
       </c>
       <c r="G1147" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -27641,7 +27642,7 @@
         <v>84</v>
       </c>
       <c r="G1148" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -27664,7 +27665,7 @@
         <v>84</v>
       </c>
       <c r="G1149" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="1150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -29185,7 +29186,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="1216" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
         <v>210</v>
       </c>
@@ -29323,7 +29324,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1222" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
         <v>210</v>
       </c>
@@ -29714,7 +29715,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
         <v>210</v>
       </c>
@@ -30450,7 +30451,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1271" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1271" t="s">
         <v>210</v>
       </c>
@@ -30772,7 +30773,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1285" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1285" t="s">
         <v>210</v>
       </c>
@@ -31531,7 +31532,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="1318" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1318" t="s">
         <v>210</v>
       </c>
@@ -31646,7 +31647,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1323" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1323" t="s">
         <v>210</v>
       </c>
@@ -32175,7 +32176,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1346" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1346" t="s">
         <v>210</v>
       </c>
@@ -32336,7 +32337,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1353" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1353" t="s">
         <v>210</v>
       </c>
@@ -32957,7 +32958,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1380" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1380" t="s">
         <v>210</v>
       </c>
@@ -33279,7 +33280,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="1394" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1394" t="s">
         <v>210</v>
       </c>
@@ -34153,7 +34154,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1432" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1432" t="s">
         <v>210</v>
       </c>
@@ -34452,7 +34453,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="1445" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1445" t="s">
         <v>210</v>
       </c>
@@ -34475,7 +34476,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1446" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1446" t="s">
         <v>210</v>
       </c>
@@ -34498,7 +34499,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1447" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1447" t="s">
         <v>210</v>
       </c>
@@ -43767,7 +43768,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1850" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1850" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1850" t="s">
         <v>210</v>
       </c>
@@ -43790,7 +43791,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1851" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1851" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1851" t="s">
         <v>210</v>
       </c>
@@ -43813,7 +43814,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1852" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1852" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1852" t="s">
         <v>210</v>
       </c>
@@ -44615,7 +44616,7 @@
         <v>95</v>
       </c>
       <c r="G1886" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1887" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -44638,7 +44639,7 @@
         <v>95</v>
       </c>
       <c r="G1887" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1888" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -44661,7 +44662,7 @@
         <v>95</v>
       </c>
       <c r="G1888" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1889" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -44684,7 +44685,7 @@
         <v>95</v>
       </c>
       <c r="G1889" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1890" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -44707,7 +44708,7 @@
         <v>95</v>
       </c>
       <c r="G1890" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1891" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -44730,7 +44731,7 @@
         <v>95</v>
       </c>
       <c r="G1891" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1892" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -44776,7 +44777,7 @@
         <v>95</v>
       </c>
       <c r="G1893" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1894" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -44799,7 +44800,7 @@
         <v>95</v>
       </c>
       <c r="G1894" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1895" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -44822,7 +44823,7 @@
         <v>95</v>
       </c>
       <c r="G1895" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1896" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -44845,7 +44846,7 @@
         <v>95</v>
       </c>
       <c r="G1896" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1897" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -44868,7 +44869,7 @@
         <v>95</v>
       </c>
       <c r="G1897" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1898" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -44891,7 +44892,7 @@
         <v>95</v>
       </c>
       <c r="G1898" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1899" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -44914,7 +44915,7 @@
         <v>95</v>
       </c>
       <c r="G1899" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1900" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -44937,7 +44938,7 @@
         <v>95</v>
       </c>
       <c r="G1900" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1901" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -44960,7 +44961,7 @@
         <v>95</v>
       </c>
       <c r="G1901" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1902" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -44983,7 +44984,7 @@
         <v>95</v>
       </c>
       <c r="G1902" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1903" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -45006,7 +45007,7 @@
         <v>95</v>
       </c>
       <c r="G1903" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1904" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -45029,7 +45030,7 @@
         <v>95</v>
       </c>
       <c r="G1904" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1905" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -45052,7 +45053,7 @@
         <v>95</v>
       </c>
       <c r="G1905" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1906" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -45075,7 +45076,7 @@
         <v>95</v>
       </c>
       <c r="G1906" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1907" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -45098,10 +45099,10 @@
         <v>95</v>
       </c>
       <c r="G1907" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="1908" spans="1:7" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1908" t="s">
         <v>125</v>
       </c>
@@ -45124,7 +45125,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1909" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1909" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1909" t="s">
         <v>125</v>
       </c>
@@ -45147,7 +45148,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1910" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1910" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1910" t="s">
         <v>125</v>
       </c>
@@ -45170,7 +45171,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1911" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1911" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1911" t="s">
         <v>125</v>
       </c>
@@ -45193,7 +45194,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1912" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1912" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1912" t="s">
         <v>125</v>
       </c>
@@ -45216,7 +45217,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1913" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1913" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1913" t="s">
         <v>125</v>
       </c>
@@ -45239,7 +45240,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1914" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1914" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1914" t="s">
         <v>125</v>
       </c>
@@ -45262,7 +45263,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1915" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1915" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1915" t="s">
         <v>125</v>
       </c>
@@ -45285,7 +45286,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1916" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1916" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1916" t="s">
         <v>125</v>
       </c>
@@ -45308,7 +45309,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1917" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1917" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1917" t="s">
         <v>125</v>
       </c>
@@ -45331,7 +45332,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1918" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1918" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1918" t="s">
         <v>125</v>
       </c>
@@ -45354,7 +45355,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1919" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1919" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1919" t="s">
         <v>125</v>
       </c>
@@ -45377,7 +45378,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1920" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1920" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1920" t="s">
         <v>125</v>
       </c>
@@ -45400,7 +45401,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1921" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1921" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1921" t="s">
         <v>125</v>
       </c>
@@ -45423,7 +45424,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1922" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1922" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1922" t="s">
         <v>125</v>
       </c>
@@ -45446,7 +45447,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1923" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1923" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1923" t="s">
         <v>125</v>
       </c>
@@ -45469,7 +45470,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1924" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1924" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1924" t="s">
         <v>125</v>
       </c>
@@ -45492,7 +45493,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1925" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1925" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1925" t="s">
         <v>125</v>
       </c>
@@ -45515,7 +45516,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1926" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1926" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1926" t="s">
         <v>125</v>
       </c>
@@ -45538,7 +45539,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1927" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1927" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1927" t="s">
         <v>125</v>
       </c>
@@ -45561,7 +45562,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1928" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1928" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1928" t="s">
         <v>125</v>
       </c>
@@ -45584,7 +45585,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1929" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1929" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1929" t="s">
         <v>125</v>
       </c>
@@ -45607,7 +45608,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1930" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1930" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1930" t="s">
         <v>125</v>
       </c>
@@ -45630,7 +45631,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1931" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1931" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1931" t="s">
         <v>125</v>
       </c>
@@ -45653,7 +45654,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="1932" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1932" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1932" t="s">
         <v>125</v>
       </c>
@@ -45811,7 +45812,7 @@
         <v>95</v>
       </c>
       <c r="G1938" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1939" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -45834,7 +45835,7 @@
         <v>95</v>
       </c>
       <c r="G1939" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1940" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -46297,7 +46298,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1960" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1960" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1960" t="s">
         <v>210</v>
       </c>
@@ -46320,7 +46321,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1961" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1961" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1961" t="s">
         <v>210</v>
       </c>
@@ -46343,7 +46344,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="1962" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1962" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1962" t="s">
         <v>210</v>
       </c>
@@ -48571,7 +48572,7 @@
         <v>226</v>
       </c>
       <c r="G2058" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2059" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -48594,7 +48595,7 @@
         <v>226</v>
       </c>
       <c r="G2059" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2060" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -48617,7 +48618,7 @@
         <v>226</v>
       </c>
       <c r="G2060" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2061" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -48640,7 +48641,7 @@
         <v>226</v>
       </c>
       <c r="G2061" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2062" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -48663,7 +48664,7 @@
         <v>226</v>
       </c>
       <c r="G2062" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2063" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -48686,7 +48687,7 @@
         <v>226</v>
       </c>
       <c r="G2063" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2064" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -48709,7 +48710,7 @@
         <v>226</v>
       </c>
       <c r="G2064" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2065" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -48732,7 +48733,7 @@
         <v>226</v>
       </c>
       <c r="G2065" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2066" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -48755,7 +48756,7 @@
         <v>226</v>
       </c>
       <c r="G2066" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2067" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -48778,7 +48779,7 @@
         <v>226</v>
       </c>
       <c r="G2067" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2068" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -48801,7 +48802,7 @@
         <v>226</v>
       </c>
       <c r="G2068" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2069" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -48824,7 +48825,7 @@
         <v>226</v>
       </c>
       <c r="G2069" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2070" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -48847,7 +48848,7 @@
         <v>226</v>
       </c>
       <c r="G2070" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2071" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -48870,7 +48871,7 @@
         <v>226</v>
       </c>
       <c r="G2071" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2072" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -48893,7 +48894,7 @@
         <v>226</v>
       </c>
       <c r="G2072" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2073" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -48916,7 +48917,7 @@
         <v>226</v>
       </c>
       <c r="G2073" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2074" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -48939,7 +48940,7 @@
         <v>226</v>
       </c>
       <c r="G2074" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2075" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -48962,7 +48963,7 @@
         <v>226</v>
       </c>
       <c r="G2075" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2076" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -48985,7 +48986,7 @@
         <v>226</v>
       </c>
       <c r="G2076" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2077" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -49008,7 +49009,7 @@
         <v>226</v>
       </c>
       <c r="G2077" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2078" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -49031,7 +49032,7 @@
         <v>226</v>
       </c>
       <c r="G2078" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2079" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -49054,7 +49055,7 @@
         <v>226</v>
       </c>
       <c r="G2079" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2080" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -49077,7 +49078,7 @@
         <v>226</v>
       </c>
       <c r="G2080" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2081" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -49123,7 +49124,7 @@
         <v>226</v>
       </c>
       <c r="G2082" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2083" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -49307,7 +49308,7 @@
         <v>226</v>
       </c>
       <c r="G2090" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2091" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -49330,7 +49331,7 @@
         <v>226</v>
       </c>
       <c r="G2091" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2092" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -49353,7 +49354,7 @@
         <v>226</v>
       </c>
       <c r="G2092" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2093" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -49376,7 +49377,7 @@
         <v>226</v>
       </c>
       <c r="G2093" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2094" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -49590,7 +49591,7 @@
   <autoFilter ref="A1:H2102" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Varaidzo Martha Mazhambe"/>
+        <filter val="Muhammad Masab Bilal Muhammad Talha"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/schedules.xlsx
+++ b/schedules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M.taha\Desktop\saas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501EB60F-35D7-4697-BB0E-D75209C7EB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E164ED34-065D-44AF-B976-911B2B1C35FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1308,8 +1308,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H2078"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A608" zoomScale="113" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G608" sqref="G608:G1975"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G1332" sqref="G1332:G2013"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -17544,7 +17544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>182</v>
       </c>
@@ -17706,7 +17706,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>182</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>182</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>182</v>
       </c>
@@ -18165,7 +18165,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>182</v>
       </c>
@@ -18867,7 +18867,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>182</v>
       </c>
@@ -18948,7 +18948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>182</v>
       </c>
@@ -19137,7 +19137,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>182</v>
       </c>
@@ -19164,7 +19164,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>182</v>
       </c>
@@ -19596,7 +19596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>182</v>
       </c>
@@ -19731,7 +19731,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>182</v>
       </c>
@@ -19893,7 +19893,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>182</v>
       </c>
@@ -20001,7 +20001,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>182</v>
       </c>
@@ -20271,7 +20271,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>182</v>
       </c>
@@ -20406,7 +20406,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>182</v>
       </c>
@@ -20703,7 +20703,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>182</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>182</v>
       </c>
@@ -21918,7 +21918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>182</v>
       </c>
@@ -22080,7 +22080,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>182</v>
       </c>
@@ -22161,7 +22161,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>182</v>
       </c>
@@ -24476,7 +24476,7 @@
         <v>87</v>
       </c>
       <c r="G858" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H858">
         <f t="shared" si="13"/>
@@ -24530,7 +24530,7 @@
         <v>216</v>
       </c>
       <c r="G860" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H860">
         <f t="shared" si="13"/>
@@ -24557,7 +24557,7 @@
         <v>224</v>
       </c>
       <c r="G861" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H861">
         <f t="shared" si="13"/>
@@ -24611,7 +24611,7 @@
         <v>87</v>
       </c>
       <c r="G863" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H863">
         <f t="shared" si="13"/>
@@ -24665,7 +24665,7 @@
         <v>90</v>
       </c>
       <c r="G865" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H865">
         <f t="shared" si="13"/>
@@ -24746,7 +24746,7 @@
         <v>216</v>
       </c>
       <c r="G868" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H868">
         <f t="shared" si="13"/>
@@ -24989,7 +24989,7 @@
         <v>216</v>
       </c>
       <c r="G877" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H877">
         <f t="shared" si="13"/>
@@ -25016,7 +25016,7 @@
         <v>87</v>
       </c>
       <c r="G878" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H878">
         <f t="shared" si="13"/>
@@ -25070,7 +25070,7 @@
         <v>87</v>
       </c>
       <c r="G880" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H880">
         <f t="shared" si="13"/>
@@ -25097,7 +25097,7 @@
         <v>216</v>
       </c>
       <c r="G881" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H881">
         <f t="shared" si="13"/>
@@ -25124,7 +25124,7 @@
         <v>224</v>
       </c>
       <c r="G882" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H882">
         <f t="shared" si="13"/>
@@ -25367,7 +25367,7 @@
         <v>216</v>
       </c>
       <c r="G891" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H891">
         <f t="shared" si="13"/>
@@ -25421,7 +25421,7 @@
         <v>87</v>
       </c>
       <c r="G893" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H893">
         <f t="shared" si="13"/>
@@ -25475,7 +25475,7 @@
         <v>224</v>
       </c>
       <c r="G895" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H895">
         <f t="shared" si="13"/>
@@ -25529,7 +25529,7 @@
         <v>216</v>
       </c>
       <c r="G897" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H897">
         <f t="shared" si="13"/>
@@ -25583,7 +25583,7 @@
         <v>87</v>
       </c>
       <c r="G899" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H899">
         <f t="shared" si="14"/>
@@ -25610,7 +25610,7 @@
         <v>216</v>
       </c>
       <c r="G900" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H900">
         <f t="shared" si="14"/>
@@ -25637,7 +25637,7 @@
         <v>224</v>
       </c>
       <c r="G901" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H901">
         <f t="shared" si="14"/>
@@ -25691,7 +25691,7 @@
         <v>90</v>
       </c>
       <c r="G903" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H903">
         <f t="shared" si="14"/>
@@ -25718,7 +25718,7 @@
         <v>87</v>
       </c>
       <c r="G904" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H904">
         <f t="shared" si="14"/>
@@ -25853,7 +25853,7 @@
         <v>87</v>
       </c>
       <c r="G909" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H909">
         <f t="shared" si="14"/>
@@ -25907,7 +25907,7 @@
         <v>216</v>
       </c>
       <c r="G911" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H911">
         <f t="shared" si="14"/>
@@ -25934,7 +25934,7 @@
         <v>216</v>
       </c>
       <c r="G912" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H912">
         <f t="shared" si="14"/>
@@ -26042,7 +26042,7 @@
         <v>216</v>
       </c>
       <c r="G916" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H916">
         <f t="shared" si="14"/>
@@ -26096,7 +26096,7 @@
         <v>90</v>
       </c>
       <c r="G918" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H918">
         <f t="shared" si="14"/>
@@ -26123,7 +26123,7 @@
         <v>87</v>
       </c>
       <c r="G919" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H919">
         <f t="shared" si="14"/>
@@ -26231,7 +26231,7 @@
         <v>216</v>
       </c>
       <c r="G923" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H923">
         <f t="shared" si="14"/>
@@ -26258,7 +26258,7 @@
         <v>224</v>
       </c>
       <c r="G924" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H924">
         <f t="shared" si="14"/>
@@ -26285,7 +26285,7 @@
         <v>87</v>
       </c>
       <c r="G925" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H925">
         <f t="shared" si="14"/>
@@ -26339,7 +26339,7 @@
         <v>87</v>
       </c>
       <c r="G927" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H927">
         <f t="shared" si="14"/>
@@ -26366,7 +26366,7 @@
         <v>216</v>
       </c>
       <c r="G928" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H928">
         <f t="shared" si="14"/>
@@ -26393,7 +26393,7 @@
         <v>87</v>
       </c>
       <c r="G929" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H929">
         <f t="shared" si="14"/>
@@ -26474,7 +26474,7 @@
         <v>224</v>
       </c>
       <c r="G932" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H932">
         <f t="shared" si="14"/>
@@ -26690,7 +26690,7 @@
         <v>216</v>
       </c>
       <c r="G940" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H940">
         <f t="shared" si="14"/>
@@ -26717,7 +26717,7 @@
         <v>87</v>
       </c>
       <c r="G941" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H941">
         <f t="shared" si="14"/>
@@ -26744,7 +26744,7 @@
         <v>87</v>
       </c>
       <c r="G942" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H942">
         <f t="shared" si="14"/>
@@ -26771,7 +26771,7 @@
         <v>90</v>
       </c>
       <c r="G943" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H943">
         <f t="shared" si="14"/>
@@ -26798,7 +26798,7 @@
         <v>216</v>
       </c>
       <c r="G944" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H944">
         <f t="shared" si="14"/>
@@ -26906,7 +26906,7 @@
         <v>224</v>
       </c>
       <c r="G948" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H948">
         <f t="shared" si="14"/>
@@ -26960,7 +26960,7 @@
         <v>87</v>
       </c>
       <c r="G950" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H950">
         <f t="shared" si="14"/>
@@ -27149,7 +27149,7 @@
         <v>216</v>
       </c>
       <c r="G957" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H957">
         <f t="shared" si="14"/>
@@ -27230,7 +27230,7 @@
         <v>87</v>
       </c>
       <c r="G960" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H960">
         <f t="shared" si="14"/>
@@ -27311,7 +27311,7 @@
         <v>216</v>
       </c>
       <c r="G963" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H963">
         <f t="shared" si="15"/>
@@ -27365,7 +27365,7 @@
         <v>224</v>
       </c>
       <c r="G965" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H965">
         <f t="shared" si="15"/>
@@ -27392,7 +27392,7 @@
         <v>78</v>
       </c>
       <c r="G966" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H966">
         <f t="shared" si="15"/>
@@ -27446,7 +27446,7 @@
         <v>224</v>
       </c>
       <c r="G968" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H968">
         <f t="shared" si="15"/>
@@ -27473,7 +27473,7 @@
         <v>217</v>
       </c>
       <c r="G969" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H969">
         <f t="shared" si="15"/>
@@ -27500,7 +27500,7 @@
         <v>87</v>
       </c>
       <c r="G970" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H970">
         <f t="shared" si="15"/>
@@ -27581,7 +27581,7 @@
         <v>78</v>
       </c>
       <c r="G973" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H973">
         <f t="shared" si="15"/>
@@ -27635,7 +27635,7 @@
         <v>87</v>
       </c>
       <c r="G975" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H975">
         <f t="shared" si="15"/>
@@ -27689,7 +27689,7 @@
         <v>78</v>
       </c>
       <c r="G977" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H977">
         <f t="shared" si="15"/>
@@ -27743,7 +27743,7 @@
         <v>217</v>
       </c>
       <c r="G979" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H979">
         <f t="shared" si="15"/>
@@ -27770,7 +27770,7 @@
         <v>224</v>
       </c>
       <c r="G980" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H980">
         <f t="shared" si="15"/>
@@ -27797,7 +27797,7 @@
         <v>78</v>
       </c>
       <c r="G981" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H981">
         <f t="shared" si="15"/>
@@ -27824,7 +27824,7 @@
         <v>87</v>
       </c>
       <c r="G982" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H982">
         <f t="shared" si="15"/>
@@ -27905,7 +27905,7 @@
         <v>78</v>
       </c>
       <c r="G985" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H985">
         <f t="shared" si="15"/>
@@ -27932,7 +27932,7 @@
         <v>217</v>
       </c>
       <c r="G986" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H986">
         <f t="shared" si="15"/>
@@ -27986,7 +27986,7 @@
         <v>90</v>
       </c>
       <c r="G988" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H988">
         <f t="shared" si="15"/>
@@ -28067,7 +28067,7 @@
         <v>217</v>
       </c>
       <c r="G991" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H991">
         <f t="shared" si="15"/>
@@ -28094,7 +28094,7 @@
         <v>87</v>
       </c>
       <c r="G992" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H992">
         <f t="shared" si="15"/>
@@ -28148,7 +28148,7 @@
         <v>78</v>
       </c>
       <c r="G994" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H994">
         <f t="shared" si="15"/>
@@ -28283,7 +28283,7 @@
         <v>217</v>
       </c>
       <c r="G999" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H999">
         <f t="shared" si="15"/>
@@ -28337,7 +28337,7 @@
         <v>78</v>
       </c>
       <c r="G1001" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1001">
         <f t="shared" si="15"/>
@@ -28364,7 +28364,7 @@
         <v>217</v>
       </c>
       <c r="G1002" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1002">
         <f t="shared" si="15"/>
@@ -28391,7 +28391,7 @@
         <v>78</v>
       </c>
       <c r="G1003" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1003">
         <f t="shared" si="15"/>
@@ -28472,7 +28472,7 @@
         <v>90</v>
       </c>
       <c r="G1006" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1006">
         <f t="shared" si="15"/>
@@ -28499,7 +28499,7 @@
         <v>217</v>
       </c>
       <c r="G1007" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1007">
         <f t="shared" si="15"/>
@@ -28580,7 +28580,7 @@
         <v>224</v>
       </c>
       <c r="G1010" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H1010">
         <f t="shared" si="15"/>
@@ -28688,7 +28688,7 @@
         <v>224</v>
       </c>
       <c r="G1014" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H1014">
         <f t="shared" si="15"/>
@@ -28715,7 +28715,7 @@
         <v>78</v>
       </c>
       <c r="G1015" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1015">
         <f t="shared" si="15"/>
@@ -28742,7 +28742,7 @@
         <v>217</v>
       </c>
       <c r="G1016" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1016">
         <f t="shared" si="15"/>
@@ -28769,7 +28769,7 @@
         <v>78</v>
       </c>
       <c r="G1017" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1017">
         <f t="shared" si="15"/>
@@ -28958,7 +28958,7 @@
         <v>78</v>
       </c>
       <c r="G1024" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1024">
         <f t="shared" si="15"/>
@@ -28985,7 +28985,7 @@
         <v>90</v>
       </c>
       <c r="G1025" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1025">
         <f t="shared" si="15"/>
@@ -29039,7 +29039,7 @@
         <v>217</v>
       </c>
       <c r="G1027" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1027">
         <f t="shared" si="16"/>
@@ -29066,7 +29066,7 @@
         <v>224</v>
       </c>
       <c r="G1028" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H1028">
         <f t="shared" si="16"/>
@@ -29120,7 +29120,7 @@
         <v>217</v>
       </c>
       <c r="G1030" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1030">
         <f t="shared" si="16"/>
@@ -29201,7 +29201,7 @@
         <v>78</v>
       </c>
       <c r="G1033" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1033">
         <f t="shared" si="16"/>
@@ -29309,7 +29309,7 @@
         <v>217</v>
       </c>
       <c r="G1037" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1037">
         <f t="shared" si="16"/>
@@ -29336,7 +29336,7 @@
         <v>78</v>
       </c>
       <c r="G1038" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1038">
         <f t="shared" si="16"/>
@@ -29417,7 +29417,7 @@
         <v>78</v>
       </c>
       <c r="G1041" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1041">
         <f t="shared" si="16"/>
@@ -29444,7 +29444,7 @@
         <v>217</v>
       </c>
       <c r="G1042" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1042">
         <f t="shared" si="16"/>
@@ -29471,7 +29471,7 @@
         <v>224</v>
       </c>
       <c r="G1043" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H1043">
         <f t="shared" si="16"/>
@@ -29525,7 +29525,7 @@
         <v>78</v>
       </c>
       <c r="G1045" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1045">
         <f t="shared" si="16"/>
@@ -29633,7 +29633,7 @@
         <v>78</v>
       </c>
       <c r="G1049" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1049">
         <f t="shared" si="16"/>
@@ -29660,7 +29660,7 @@
         <v>78</v>
       </c>
       <c r="G1050" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1050">
         <f t="shared" si="16"/>
@@ -29768,7 +29768,7 @@
         <v>224</v>
       </c>
       <c r="G1054" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H1054">
         <f t="shared" si="16"/>
@@ -29795,7 +29795,7 @@
         <v>217</v>
       </c>
       <c r="G1055" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1055">
         <f t="shared" si="16"/>
@@ -29822,7 +29822,7 @@
         <v>78</v>
       </c>
       <c r="G1056" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1056">
         <f t="shared" si="16"/>
@@ -29876,7 +29876,7 @@
         <v>224</v>
       </c>
       <c r="G1058" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H1058">
         <f t="shared" si="16"/>
@@ -29903,7 +29903,7 @@
         <v>217</v>
       </c>
       <c r="G1059" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1059">
         <f t="shared" si="16"/>
@@ -29957,7 +29957,7 @@
         <v>90</v>
       </c>
       <c r="G1061" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1061">
         <f t="shared" si="16"/>
@@ -30038,7 +30038,7 @@
         <v>78</v>
       </c>
       <c r="G1064" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1064">
         <f t="shared" si="16"/>
@@ -30065,7 +30065,7 @@
         <v>217</v>
       </c>
       <c r="G1065" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1065">
         <f t="shared" si="16"/>
@@ -30146,7 +30146,7 @@
         <v>217</v>
       </c>
       <c r="G1068" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1068">
         <f t="shared" si="16"/>
@@ -30281,7 +30281,7 @@
         <v>78</v>
       </c>
       <c r="G1073" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1073">
         <f t="shared" si="16"/>
@@ -30308,7 +30308,7 @@
         <v>90</v>
       </c>
       <c r="G1074" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1074">
         <f t="shared" si="16"/>
@@ -30335,7 +30335,7 @@
         <v>79</v>
       </c>
       <c r="G1075" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1075">
         <f t="shared" si="16"/>
@@ -30416,7 +30416,7 @@
         <v>224</v>
       </c>
       <c r="G1078" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H1078">
         <f t="shared" si="16"/>
@@ -30497,7 +30497,7 @@
         <v>79</v>
       </c>
       <c r="G1081" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1081">
         <f t="shared" si="16"/>
@@ -30632,7 +30632,7 @@
         <v>79</v>
       </c>
       <c r="G1086" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1086">
         <f t="shared" si="16"/>
@@ -30713,7 +30713,7 @@
         <v>224</v>
       </c>
       <c r="G1089" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H1089">
         <f t="shared" si="16"/>
@@ -30848,7 +30848,7 @@
         <v>79</v>
       </c>
       <c r="G1094" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1094">
         <f t="shared" si="17"/>
@@ -30983,7 +30983,7 @@
         <v>79</v>
       </c>
       <c r="G1099" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1099">
         <f t="shared" si="17"/>
@@ -31091,7 +31091,7 @@
         <v>79</v>
       </c>
       <c r="G1103" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1103">
         <f t="shared" si="17"/>
@@ -31118,7 +31118,7 @@
         <v>79</v>
       </c>
       <c r="G1104" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1104">
         <f t="shared" si="17"/>
@@ -31388,7 +31388,7 @@
         <v>79</v>
       </c>
       <c r="G1114" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1114">
         <f t="shared" si="17"/>
@@ -31496,7 +31496,7 @@
         <v>79</v>
       </c>
       <c r="G1118" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1118">
         <f t="shared" si="17"/>
@@ -31523,7 +31523,7 @@
         <v>224</v>
       </c>
       <c r="G1119" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H1119">
         <f t="shared" si="17"/>
@@ -31550,7 +31550,7 @@
         <v>90</v>
       </c>
       <c r="G1120" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1120">
         <f t="shared" si="17"/>
@@ -31631,7 +31631,7 @@
         <v>224</v>
       </c>
       <c r="G1123" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H1123">
         <f t="shared" si="17"/>
@@ -31685,7 +31685,7 @@
         <v>79</v>
       </c>
       <c r="G1125" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1125">
         <f t="shared" si="17"/>
@@ -31793,7 +31793,7 @@
         <v>224</v>
       </c>
       <c r="G1129" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H1129">
         <f t="shared" si="17"/>
@@ -31847,7 +31847,7 @@
         <v>90</v>
       </c>
       <c r="G1131" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1131">
         <f t="shared" si="17"/>
@@ -31874,7 +31874,7 @@
         <v>79</v>
       </c>
       <c r="G1132" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1132">
         <f t="shared" si="17"/>
@@ -31928,7 +31928,7 @@
         <v>224</v>
       </c>
       <c r="G1134" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H1134">
         <f t="shared" si="17"/>
@@ -31982,7 +31982,7 @@
         <v>79</v>
       </c>
       <c r="G1136" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1136">
         <f t="shared" si="17"/>
@@ -32144,7 +32144,7 @@
         <v>79</v>
       </c>
       <c r="G1142" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1142">
         <f t="shared" si="17"/>
@@ -32198,7 +32198,7 @@
         <v>79</v>
       </c>
       <c r="G1144" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1144">
         <f t="shared" si="17"/>
@@ -32333,7 +32333,7 @@
         <v>79</v>
       </c>
       <c r="G1149" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1149">
         <f t="shared" si="17"/>
@@ -32495,7 +32495,7 @@
         <v>79</v>
       </c>
       <c r="G1155" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1155">
         <f t="shared" si="18"/>
@@ -32630,7 +32630,7 @@
         <v>79</v>
       </c>
       <c r="G1160" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1160">
         <f t="shared" si="18"/>
@@ -32792,7 +32792,7 @@
         <v>79</v>
       </c>
       <c r="G1166" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1166">
         <f t="shared" si="18"/>
@@ -32954,7 +32954,7 @@
         <v>90</v>
       </c>
       <c r="G1172" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1172">
         <f t="shared" si="18"/>
@@ -33008,7 +33008,7 @@
         <v>79</v>
       </c>
       <c r="G1174" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1174">
         <f t="shared" si="18"/>
@@ -33089,7 +33089,7 @@
         <v>79</v>
       </c>
       <c r="G1177" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1177">
         <f t="shared" si="18"/>
@@ -33764,7 +33764,7 @@
         <v>90</v>
       </c>
       <c r="G1202" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1202">
         <f t="shared" si="18"/>
@@ -34196,7 +34196,7 @@
         <v>90</v>
       </c>
       <c r="G1218" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1218">
         <f t="shared" ref="H1218:H1281" si="19">COUNTIF(D:D,D1218)</f>
@@ -35357,7 +35357,7 @@
         <v>90</v>
       </c>
       <c r="G1261" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1261">
         <f t="shared" si="19"/>
@@ -35816,7 +35816,7 @@
         <v>90</v>
       </c>
       <c r="G1278" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1278">
         <f t="shared" si="19"/>
@@ -36437,7 +36437,7 @@
         <v>90</v>
       </c>
       <c r="G1301" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1301">
         <f t="shared" si="20"/>
@@ -37092,7 +37092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1326" t="s">
         <v>164</v>
       </c>
@@ -37112,7 +37112,7 @@
         <v>220</v>
       </c>
       <c r="G1326" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1326">
         <f t="shared" si="20"/>
@@ -37254,7 +37254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1332" t="s">
         <v>164</v>
       </c>
@@ -37274,7 +37274,7 @@
         <v>220</v>
       </c>
       <c r="G1332" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1332">
         <f t="shared" si="20"/>
@@ -37301,7 +37301,7 @@
         <v>90</v>
       </c>
       <c r="G1333" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1333">
         <f t="shared" si="20"/>
@@ -37443,7 +37443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1339" t="s">
         <v>164</v>
       </c>
@@ -37463,7 +37463,7 @@
         <v>220</v>
       </c>
       <c r="G1339" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1339">
         <f t="shared" si="20"/>
@@ -37524,7 +37524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1342" t="s">
         <v>164</v>
       </c>
@@ -37544,7 +37544,7 @@
         <v>220</v>
       </c>
       <c r="G1342" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1342">
         <f t="shared" si="20"/>
@@ -37652,7 +37652,7 @@
         <v>85</v>
       </c>
       <c r="G1346" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1346">
         <f t="shared" ref="H1346:H1409" si="21">COUNTIF(D:D,D1346)</f>
@@ -37679,7 +37679,7 @@
         <v>85</v>
       </c>
       <c r="G1347" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1347">
         <f t="shared" si="21"/>
@@ -37740,7 +37740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1350" t="s">
         <v>164</v>
       </c>
@@ -37760,7 +37760,7 @@
         <v>220</v>
       </c>
       <c r="G1350" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1350">
         <f t="shared" si="21"/>
@@ -37794,7 +37794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1352" t="s">
         <v>164</v>
       </c>
@@ -37814,7 +37814,7 @@
         <v>220</v>
       </c>
       <c r="G1352" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1352">
         <f t="shared" si="21"/>
@@ -37848,7 +37848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1354" t="s">
         <v>164</v>
       </c>
@@ -37868,7 +37868,7 @@
         <v>220</v>
       </c>
       <c r="G1354" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1354">
         <f t="shared" si="21"/>
@@ -37895,7 +37895,7 @@
         <v>85</v>
       </c>
       <c r="G1355" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1355">
         <f t="shared" si="21"/>
@@ -38010,7 +38010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1360" t="s">
         <v>164</v>
       </c>
@@ -38030,7 +38030,7 @@
         <v>220</v>
       </c>
       <c r="G1360" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1360">
         <f t="shared" si="21"/>
@@ -38111,7 +38111,7 @@
         <v>85</v>
       </c>
       <c r="G1363" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1363">
         <f t="shared" si="21"/>
@@ -38219,7 +38219,7 @@
         <v>85</v>
       </c>
       <c r="G1367" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1367">
         <f t="shared" si="21"/>
@@ -38327,14 +38327,14 @@
         <v>85</v>
       </c>
       <c r="G1371" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1371">
         <f t="shared" si="21"/>
         <v>27</v>
       </c>
     </row>
-    <row r="1372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1372" t="s">
         <v>164</v>
       </c>
@@ -38354,7 +38354,7 @@
         <v>220</v>
       </c>
       <c r="G1372" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1372">
         <f t="shared" si="21"/>
@@ -38381,7 +38381,7 @@
         <v>215</v>
       </c>
       <c r="G1373" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1373">
         <f t="shared" si="21"/>
@@ -38435,14 +38435,14 @@
         <v>215</v>
       </c>
       <c r="G1375" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1375">
         <f t="shared" si="21"/>
         <v>27</v>
       </c>
     </row>
-    <row r="1376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1376" t="s">
         <v>164</v>
       </c>
@@ -38462,7 +38462,7 @@
         <v>220</v>
       </c>
       <c r="G1376" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1376">
         <f t="shared" si="21"/>
@@ -38516,7 +38516,7 @@
         <v>85</v>
       </c>
       <c r="G1378" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1378">
         <f t="shared" si="21"/>
@@ -38570,7 +38570,7 @@
         <v>215</v>
       </c>
       <c r="G1380" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1380">
         <f t="shared" si="21"/>
@@ -38631,7 +38631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1383" t="s">
         <v>164</v>
       </c>
@@ -38651,7 +38651,7 @@
         <v>220</v>
       </c>
       <c r="G1383" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1383">
         <f t="shared" si="21"/>
@@ -38705,7 +38705,7 @@
         <v>85</v>
       </c>
       <c r="G1385" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1385">
         <f t="shared" si="21"/>
@@ -38732,7 +38732,7 @@
         <v>85</v>
       </c>
       <c r="G1386" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1386">
         <f t="shared" si="21"/>
@@ -38813,7 +38813,7 @@
         <v>215</v>
       </c>
       <c r="G1389" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1389">
         <f t="shared" si="21"/>
@@ -38921,7 +38921,7 @@
         <v>215</v>
       </c>
       <c r="G1393" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1393">
         <f t="shared" si="21"/>
@@ -38975,7 +38975,7 @@
         <v>90</v>
       </c>
       <c r="G1395" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1395">
         <f t="shared" si="21"/>
@@ -39002,14 +39002,14 @@
         <v>85</v>
       </c>
       <c r="G1396" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1396">
         <f t="shared" si="21"/>
         <v>27</v>
       </c>
     </row>
-    <row r="1397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1397" t="s">
         <v>164</v>
       </c>
@@ -39029,7 +39029,7 @@
         <v>220</v>
       </c>
       <c r="G1397" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1397">
         <f t="shared" si="21"/>
@@ -39056,7 +39056,7 @@
         <v>215</v>
       </c>
       <c r="G1398" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1398">
         <f t="shared" si="21"/>
@@ -39083,14 +39083,14 @@
         <v>85</v>
       </c>
       <c r="G1399" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1399">
         <f t="shared" si="21"/>
         <v>27</v>
       </c>
     </row>
-    <row r="1400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1400" t="s">
         <v>164</v>
       </c>
@@ -39110,7 +39110,7 @@
         <v>220</v>
       </c>
       <c r="G1400" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1400">
         <f t="shared" si="21"/>
@@ -39218,7 +39218,7 @@
         <v>85</v>
       </c>
       <c r="G1404" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1404">
         <f t="shared" si="21"/>
@@ -39272,7 +39272,7 @@
         <v>215</v>
       </c>
       <c r="G1406" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1406">
         <f t="shared" si="21"/>
@@ -39326,14 +39326,14 @@
         <v>90</v>
       </c>
       <c r="G1408" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1408">
         <f t="shared" si="21"/>
         <v>27</v>
       </c>
     </row>
-    <row r="1409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1409" t="s">
         <v>164</v>
       </c>
@@ -39353,7 +39353,7 @@
         <v>220</v>
       </c>
       <c r="G1409" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1409">
         <f t="shared" si="21"/>
@@ -39380,7 +39380,7 @@
         <v>85</v>
       </c>
       <c r="G1410" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1410">
         <f t="shared" ref="H1410:H1473" si="22">COUNTIF(D:D,D1410)</f>
@@ -39407,7 +39407,7 @@
         <v>215</v>
       </c>
       <c r="G1411" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1411">
         <f t="shared" si="22"/>
@@ -39461,7 +39461,7 @@
         <v>215</v>
       </c>
       <c r="G1413" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1413">
         <f t="shared" si="22"/>
@@ -39515,14 +39515,14 @@
         <v>85</v>
       </c>
       <c r="G1415" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1415">
         <f t="shared" si="22"/>
         <v>27</v>
       </c>
     </row>
-    <row r="1416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1416" t="s">
         <v>164</v>
       </c>
@@ -39542,7 +39542,7 @@
         <v>220</v>
       </c>
       <c r="G1416" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1416">
         <f t="shared" si="22"/>
@@ -39623,7 +39623,7 @@
         <v>85</v>
       </c>
       <c r="G1419" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1419">
         <f t="shared" si="22"/>
@@ -39677,14 +39677,14 @@
         <v>215</v>
       </c>
       <c r="G1421" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1421">
         <f t="shared" si="22"/>
         <v>27</v>
       </c>
     </row>
-    <row r="1422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1422" t="s">
         <v>164</v>
       </c>
@@ -39704,7 +39704,7 @@
         <v>220</v>
       </c>
       <c r="G1422" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1422">
         <f t="shared" si="22"/>
@@ -39765,7 +39765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1425" t="s">
         <v>164</v>
       </c>
@@ -39785,7 +39785,7 @@
         <v>220</v>
       </c>
       <c r="G1425" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1425">
         <f t="shared" si="22"/>
@@ -39812,7 +39812,7 @@
         <v>215</v>
       </c>
       <c r="G1426" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1426">
         <f t="shared" si="22"/>
@@ -39873,7 +39873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1429" t="s">
         <v>164</v>
       </c>
@@ -39893,7 +39893,7 @@
         <v>220</v>
       </c>
       <c r="G1429" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1429">
         <f t="shared" si="22"/>
@@ -39974,7 +39974,7 @@
         <v>215</v>
       </c>
       <c r="G1432" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1432">
         <f t="shared" si="22"/>
@@ -40001,7 +40001,7 @@
         <v>85</v>
       </c>
       <c r="G1433" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1433">
         <f t="shared" si="22"/>
@@ -40136,7 +40136,7 @@
         <v>85</v>
       </c>
       <c r="G1438" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1438">
         <f t="shared" si="22"/>
@@ -40163,7 +40163,7 @@
         <v>215</v>
       </c>
       <c r="G1439" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1439">
         <f t="shared" si="22"/>
@@ -40217,7 +40217,7 @@
         <v>215</v>
       </c>
       <c r="G1441" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1441">
         <f t="shared" si="22"/>
@@ -40278,7 +40278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1444" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1444" t="s">
         <v>164</v>
       </c>
@@ -40298,7 +40298,7 @@
         <v>220</v>
       </c>
       <c r="G1444" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1444">
         <f t="shared" si="22"/>
@@ -40325,7 +40325,7 @@
         <v>85</v>
       </c>
       <c r="G1445" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1445">
         <f t="shared" si="22"/>
@@ -40379,14 +40379,14 @@
         <v>85</v>
       </c>
       <c r="G1447" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1447">
         <f t="shared" si="22"/>
         <v>27</v>
       </c>
     </row>
-    <row r="1448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1448" t="s">
         <v>164</v>
       </c>
@@ -40406,7 +40406,7 @@
         <v>220</v>
       </c>
       <c r="G1448" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1448">
         <f t="shared" si="22"/>
@@ -40460,7 +40460,7 @@
         <v>215</v>
       </c>
       <c r="G1450" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1450">
         <f t="shared" si="22"/>
@@ -40487,7 +40487,7 @@
         <v>85</v>
       </c>
       <c r="G1451" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1451">
         <f t="shared" si="22"/>
@@ -43997,7 +43997,7 @@
         <v>217</v>
       </c>
       <c r="G1581" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1581">
         <f t="shared" si="24"/>
@@ -44213,7 +44213,7 @@
         <v>90</v>
       </c>
       <c r="G1589" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1589">
         <f t="shared" si="24"/>
@@ -44672,7 +44672,7 @@
         <v>85</v>
       </c>
       <c r="G1606" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1606">
         <f t="shared" si="25"/>
@@ -44699,7 +44699,7 @@
         <v>78</v>
       </c>
       <c r="G1607" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1607">
         <f t="shared" si="25"/>
@@ -44726,7 +44726,7 @@
         <v>215</v>
       </c>
       <c r="G1608" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1608">
         <f t="shared" si="25"/>
@@ -44753,7 +44753,7 @@
         <v>224</v>
       </c>
       <c r="G1609" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H1609">
         <f t="shared" si="25"/>
@@ -44895,7 +44895,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="1615" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1615" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1615" t="s">
         <v>164</v>
       </c>
@@ -44915,7 +44915,7 @@
         <v>220</v>
       </c>
       <c r="G1615" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1615">
         <f t="shared" si="25"/>
@@ -45401,7 +45401,7 @@
         <v>79</v>
       </c>
       <c r="G1633" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1633">
         <f t="shared" si="25"/>
@@ -45536,7 +45536,7 @@
         <v>87</v>
       </c>
       <c r="G1638" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H1638">
         <f t="shared" si="25"/>
@@ -46137,7 +46137,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="1661" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1661" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1661" t="s">
         <v>164</v>
       </c>
@@ -46157,7 +46157,7 @@
         <v>220</v>
       </c>
       <c r="G1661" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1661">
         <f t="shared" si="25"/>
@@ -46299,7 +46299,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="1667" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1667" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1667" t="s">
         <v>182</v>
       </c>
@@ -46454,7 +46454,7 @@
         <v>217</v>
       </c>
       <c r="G1672" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1672">
         <f t="shared" si="26"/>
@@ -46670,7 +46670,7 @@
         <v>85</v>
       </c>
       <c r="G1680" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1680">
         <f t="shared" si="26"/>
@@ -46697,7 +46697,7 @@
         <v>216</v>
       </c>
       <c r="G1681" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H1681">
         <f t="shared" si="26"/>
@@ -46778,7 +46778,7 @@
         <v>224</v>
       </c>
       <c r="G1684" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H1684">
         <f t="shared" si="26"/>
@@ -46805,7 +46805,7 @@
         <v>90</v>
       </c>
       <c r="G1685" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1685">
         <f t="shared" si="26"/>
@@ -46940,7 +46940,7 @@
         <v>79</v>
       </c>
       <c r="G1690" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1690">
         <f t="shared" si="26"/>
@@ -47075,7 +47075,7 @@
         <v>215</v>
       </c>
       <c r="G1695" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1695">
         <f t="shared" si="26"/>
@@ -47237,7 +47237,7 @@
         <v>216</v>
       </c>
       <c r="G1701" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H1701">
         <f t="shared" si="26"/>
@@ -47480,7 +47480,7 @@
         <v>78</v>
       </c>
       <c r="G1710" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1710">
         <f t="shared" si="26"/>
@@ -47723,7 +47723,7 @@
         <v>87</v>
       </c>
       <c r="G1719" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H1719">
         <f t="shared" si="26"/>
@@ -48000,7 +48000,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="1730" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1730" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1730" t="s">
         <v>182</v>
       </c>
@@ -49262,7 +49262,7 @@
         <v>216</v>
       </c>
       <c r="G1776" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H1776">
         <f t="shared" si="27"/>
@@ -49397,7 +49397,7 @@
         <v>79</v>
       </c>
       <c r="G1781" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1781">
         <f t="shared" si="27"/>
@@ -49505,7 +49505,7 @@
         <v>85</v>
       </c>
       <c r="G1785" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1785">
         <f t="shared" si="27"/>
@@ -49532,7 +49532,7 @@
         <v>215</v>
       </c>
       <c r="G1786" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1786">
         <f t="shared" si="27"/>
@@ -49613,7 +49613,7 @@
         <v>78</v>
       </c>
       <c r="G1789" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1789">
         <f t="shared" si="27"/>
@@ -49674,7 +49674,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="1792" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1792" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1792" t="s">
         <v>164</v>
       </c>
@@ -49694,7 +49694,7 @@
         <v>220</v>
       </c>
       <c r="G1792" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1792">
         <f t="shared" si="27"/>
@@ -49883,7 +49883,7 @@
         <v>216</v>
       </c>
       <c r="G1799" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H1799">
         <f t="shared" si="28"/>
@@ -50018,7 +50018,7 @@
         <v>79</v>
       </c>
       <c r="G1804" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1804">
         <f t="shared" si="28"/>
@@ -50126,7 +50126,7 @@
         <v>85</v>
       </c>
       <c r="G1808" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1808">
         <f t="shared" si="28"/>
@@ -50153,7 +50153,7 @@
         <v>215</v>
       </c>
       <c r="G1809" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1809">
         <f t="shared" si="28"/>
@@ -50234,7 +50234,7 @@
         <v>78</v>
       </c>
       <c r="G1812" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1812">
         <f t="shared" si="28"/>
@@ -50295,7 +50295,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="1815" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1815" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1815" t="s">
         <v>164</v>
       </c>
@@ -50315,7 +50315,7 @@
         <v>220</v>
       </c>
       <c r="G1815" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1815">
         <f t="shared" si="28"/>
@@ -50477,7 +50477,7 @@
         <v>216</v>
       </c>
       <c r="G1821" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H1821">
         <f t="shared" si="28"/>
@@ -50612,7 +50612,7 @@
         <v>79</v>
       </c>
       <c r="G1826" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1826">
         <f t="shared" si="28"/>
@@ -50720,7 +50720,7 @@
         <v>85</v>
       </c>
       <c r="G1830" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1830">
         <f t="shared" si="28"/>
@@ -50747,7 +50747,7 @@
         <v>215</v>
       </c>
       <c r="G1831" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1831">
         <f t="shared" si="28"/>
@@ -50828,7 +50828,7 @@
         <v>78</v>
       </c>
       <c r="G1834" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1834">
         <f t="shared" si="28"/>
@@ -50889,7 +50889,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="1837" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1837" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1837" t="s">
         <v>164</v>
       </c>
@@ -50909,7 +50909,7 @@
         <v>220</v>
       </c>
       <c r="G1837" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1837">
         <f t="shared" si="28"/>
@@ -51071,7 +51071,7 @@
         <v>216</v>
       </c>
       <c r="G1843" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H1843">
         <f t="shared" si="28"/>
@@ -51206,7 +51206,7 @@
         <v>79</v>
       </c>
       <c r="G1848" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1848">
         <f t="shared" si="28"/>
@@ -51314,7 +51314,7 @@
         <v>85</v>
       </c>
       <c r="G1852" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1852">
         <f t="shared" si="28"/>
@@ -51341,7 +51341,7 @@
         <v>215</v>
       </c>
       <c r="G1853" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1853">
         <f t="shared" si="28"/>
@@ -51422,7 +51422,7 @@
         <v>78</v>
       </c>
       <c r="G1856" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1856">
         <f t="shared" si="28"/>
@@ -51483,7 +51483,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="1859" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1859" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1859" t="s">
         <v>164</v>
       </c>
@@ -51503,7 +51503,7 @@
         <v>220</v>
       </c>
       <c r="G1859" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1859">
         <f t="shared" si="29"/>
@@ -51665,7 +51665,7 @@
         <v>216</v>
       </c>
       <c r="G1865" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H1865">
         <f t="shared" si="29"/>
@@ -51800,7 +51800,7 @@
         <v>79</v>
       </c>
       <c r="G1870" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H1870">
         <f t="shared" si="29"/>
@@ -51908,7 +51908,7 @@
         <v>85</v>
       </c>
       <c r="G1874" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1874">
         <f t="shared" si="29"/>
@@ -51935,7 +51935,7 @@
         <v>215</v>
       </c>
       <c r="G1875" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1875">
         <f t="shared" si="29"/>
@@ -52016,7 +52016,7 @@
         <v>78</v>
       </c>
       <c r="G1878" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H1878">
         <f t="shared" si="29"/>
@@ -52077,7 +52077,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="1881" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1881" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1881" t="s">
         <v>164</v>
       </c>
@@ -52097,7 +52097,7 @@
         <v>220</v>
       </c>
       <c r="G1881" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H1881">
         <f t="shared" si="29"/>
@@ -54615,7 +54615,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="1975" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1975" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1975" t="s">
         <v>182</v>
       </c>
@@ -54851,7 +54851,7 @@
         <v>85</v>
       </c>
       <c r="G1983" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1983">
         <f t="shared" si="30"/>
@@ -54878,7 +54878,7 @@
         <v>215</v>
       </c>
       <c r="G1984" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H1984">
         <f t="shared" si="30"/>
@@ -55067,7 +55067,7 @@
         <v>216</v>
       </c>
       <c r="G1991" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H1991">
         <f t="shared" si="31"/>
@@ -55607,7 +55607,7 @@
         <v>217</v>
       </c>
       <c r="G2011" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H2011">
         <f t="shared" si="31"/>
@@ -55641,7 +55641,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2013" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2013" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2013" t="s">
         <v>164</v>
       </c>
@@ -55661,7 +55661,7 @@
         <v>220</v>
       </c>
       <c r="G2013" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H2013">
         <f t="shared" si="31"/>
@@ -55715,7 +55715,7 @@
         <v>78</v>
       </c>
       <c r="G2015" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H2015">
         <f t="shared" si="31"/>
@@ -56066,7 +56066,7 @@
         <v>90</v>
       </c>
       <c r="G2028" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H2028">
         <f t="shared" si="31"/>
@@ -56093,7 +56093,7 @@
         <v>87</v>
       </c>
       <c r="G2029" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H2029">
         <f t="shared" si="31"/>
@@ -56120,7 +56120,7 @@
         <v>224</v>
       </c>
       <c r="G2030" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H2030">
         <f t="shared" si="31"/>
@@ -56282,7 +56282,7 @@
         <v>79</v>
       </c>
       <c r="G2036" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H2036">
         <f t="shared" si="31"/>
@@ -56552,7 +56552,7 @@
         <v>215</v>
       </c>
       <c r="G2046" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2046">
         <f t="shared" si="31"/>
@@ -56795,7 +56795,7 @@
         <v>215</v>
       </c>
       <c r="G2055" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2055">
         <f t="shared" si="32"/>
@@ -57065,7 +57065,7 @@
         <v>215</v>
       </c>
       <c r="G2065" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2065">
         <f t="shared" si="32"/>
@@ -57227,7 +57227,7 @@
         <v>215</v>
       </c>
       <c r="G2071" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2071">
         <f t="shared" si="32"/>
@@ -57389,7 +57389,7 @@
         <v>215</v>
       </c>
       <c r="G2077" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2077">
         <f t="shared" si="32"/>
@@ -57427,7 +57427,7 @@
   <autoFilter ref="A1:G2078" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Isaac Mousa Mohammad Amayreh"/>
+        <filter val="Wendyl Grace Baldonado Bajade"/>
       </filters>
     </filterColumn>
   </autoFilter>
